--- a/data/vocabulary.xlsx
+++ b/data/vocabulary.xlsx
@@ -5,16 +5,25 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day21" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="day22" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="day23" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="day24" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="day31" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">day21!$A$1:$D$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">day22!$A$1:$B$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">day23!$A$1:$B$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">day24!$A$1:$B$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">day31!$A$1:$B$41</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">day22!$A$1:$D$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">day22!$A$1:$B$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">day23!$A$1:$D$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">day24!$A$1:$D$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">day31!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="360">
   <si>
     <t xml:space="preserve">announce</t>
   </si>
@@ -2922,6 +2931,654 @@
   </si>
   <si>
     <t xml:space="preserve">제한</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(대회 등을) 주최하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">매년의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">목적, 의도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">등록하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강의, 강연</t>
+  </si>
+  <si>
+    <t xml:space="preserve">participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참가자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참석하다, 출석하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encourage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장려하다, 북돋아 주다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">휴가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave(v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">떠나다, 남기다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">추천 사항, 추천</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">회의, 회담</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~을 예정하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">포함하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result(v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(~의 결과로) 되다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">require</t>
+  </si>
+  <si>
+    <t xml:space="preserve">요구하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grateful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고마워하는, 감사하는</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">초과 근무, 야근</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부담, 책임, 의무</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assent(v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">찬성하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assent(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">승인, 동의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regard(v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~을 ~으로 간주하다, 여기다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regard(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">관심, 배려</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tentative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">임시적인, 잠정적인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">welcome(a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반가운, 기꺼이 받아들여지는</t>
+  </si>
+  <si>
+    <t xml:space="preserve">welcome(v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환영하다, 맞이하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행사, 연회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시작되다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">목표, 목적</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excited</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">신이 난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">들뜬</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">reimbursement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">상환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">변제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">배상</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">대우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">처우</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">honor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">존경, 명예</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emphasize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강조하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(경기 등의) 참가자, 출품물</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상여금, 보너스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">급여</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(금전 등을) 벌다; (평판을) 받다, 얻다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(문제 등이) 발생하다, 일어나다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labor(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">노동</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labor(v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일하다, 노동하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">노동조합</t>
+  </si>
+  <si>
+    <t xml:space="preserve">existing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기존의, 현행의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exploit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">착취하다, 부당하게 이용하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">임명하다, 지명하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appraisal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">평가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">승진시키다, 촉진하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skilled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">숙련된, 노련한</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완전히, 철저히</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exceptional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예외적인, 뛰어난</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appreciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">감사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">평가하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제안하다, 추천하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">선호</t>
+  </si>
+  <si>
+    <t xml:space="preserve">management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영진, 경영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예측하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보내다, 전근시키다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">award(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상</t>
+  </si>
+  <si>
+    <t xml:space="preserve">award(v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(상 등을) 수여하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">의무적인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유능한, 능숙한</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">실적, 성과; 공연, 연주, 악기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reward(v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~에 보답하다, 보상하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reward(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보상, 포상</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">찾기, 수색, 조사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inexperienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미숙한, 경험 없는</t>
+  </si>
+  <si>
+    <t xml:space="preserve">early</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시간상 이른, 조기의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">designate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지명하다, 지정하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영의, 관리의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dedication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">헌신</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unanimously</t>
+  </si>
+  <si>
+    <t xml:space="preserve">만장일치로</t>
+  </si>
+  <si>
+    <t xml:space="preserve">progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진행, 진척, 진전</t>
+  </si>
+  <si>
+    <t xml:space="preserve">congratulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">축하하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dismiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">해임하다, 해고하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">independence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">독립성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">participation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참여, 참가, 가입</t>
+  </si>
+  <si>
+    <t xml:space="preserve">praise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">칭찬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accomplishment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">성과, 업적</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deliberation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토의, 심의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리더십, 지도력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">은퇴하다, 퇴직하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nomination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">임명, 지명</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reorganize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">재편성하다, 재조직하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일하다, 근무하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encouragement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">격려</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resignation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사임, 사직, 사직서</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strictly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엄격히</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joint(a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공동의, 합동의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joint(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">관절</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joint(v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">큰 덩어리로 자르다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagnostics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진단, 진단법</t>
   </si>
 </sst>
 </file>
@@ -3072,11 +3729,11 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.02"/>
@@ -3514,7 +4171,7 @@
       <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.02"/>
@@ -3955,4 +4612,1186 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.02"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
+  <pageMargins left="0.252083333333333" right="0.252083333333333" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.02"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
+  <pageMargins left="0.252083333333333" right="0.252083333333333" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.02"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
+  <pageMargins left="0.252083333333333" right="0.252083333333333" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>